--- a/public/assets/excel/WORKORDER_ENGINEERING.xlsx
+++ b/public/assets/excel/WORKORDER_ENGINEERING.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PreciseEng2025\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03282FB3-B3A4-4C01-A533-81D29D4730ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68221975-6CF3-4A21-927B-0E5F2D666AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Customer Code</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>material</t>
   </si>
 </sst>
 </file>
@@ -116,13 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -454,7 +456,7 @@
     <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,7 +475,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -491,8 +493,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
